--- a/FlightData.xlsx
+++ b/FlightData.xlsx
@@ -86,6 +86,19 @@
   </x:si>
   <x:si>
     <x:t>₹ 6,500
+per adult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22:25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01 h 10 m</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹ 7,724
 per adult</x:t>
   </x:si>
 </x:sst>
@@ -545,6 +558,23 @@
         <x:v>22</x:v>
       </x:c>
     </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
